--- a/admin/teacher.xlsx
+++ b/admin/teacher.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\phpStudyLite\WWW\jiaowu\admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy_class\WWW\jiaowu\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD5C302-BBD3-436B-B516-A053FA8531F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B07BD6-F46C-4E98-8597-C38FFA864331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20475" yWindow="2340" windowWidth="21255" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$101</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,53 +28,359 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>吴亦凡</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
+  <si>
+    <t>李丽礼</t>
+  </si>
+  <si>
+    <t>许贵宜</t>
+  </si>
+  <si>
+    <t>蔡慧娟</t>
+  </si>
+  <si>
+    <t>江丽娟</t>
+  </si>
+  <si>
+    <t>刘育冰</t>
+  </si>
+  <si>
+    <t>何家</t>
+  </si>
+  <si>
+    <t>黄慧玲</t>
+  </si>
+  <si>
+    <t>王淑勇</t>
+  </si>
+  <si>
+    <t>吴亦扬</t>
+  </si>
+  <si>
+    <t>吴佳书</t>
+  </si>
+  <si>
+    <t>祖冠珠</t>
+  </si>
+  <si>
+    <t>卢俊嘉</t>
+  </si>
+  <si>
+    <t>郭志铭</t>
+  </si>
+  <si>
+    <t>罗扬妃</t>
+  </si>
+  <si>
+    <t>杨淑华</t>
+  </si>
+  <si>
+    <t>黄好伟</t>
+  </si>
+  <si>
+    <t>孙维芬</t>
+  </si>
+  <si>
+    <t>叶宣洁</t>
+  </si>
+  <si>
+    <t>陈信俐</t>
+  </si>
+  <si>
+    <t>谢琬婷</t>
+  </si>
+  <si>
+    <t>陈筱杰</t>
+  </si>
+  <si>
+    <t>周隆季</t>
+  </si>
+  <si>
+    <t>涂慧君</t>
+  </si>
+  <si>
+    <t>陈怡君</t>
+  </si>
+  <si>
+    <t>赖韵英</t>
+  </si>
+  <si>
+    <t>杜定鸿</t>
+  </si>
+  <si>
+    <t>王淑梦</t>
+  </si>
+  <si>
+    <t>吴伟侑</t>
+  </si>
+  <si>
+    <t>萧芳仪</t>
+  </si>
+  <si>
+    <t>陈筠智</t>
+  </si>
+  <si>
+    <t>侯百宜</t>
+  </si>
+  <si>
+    <t>王淑娟</t>
+  </si>
+  <si>
+    <t>陈欣江</t>
+  </si>
+  <si>
+    <t>吴胜杰</t>
+  </si>
+  <si>
+    <t>黄宜君</t>
+  </si>
+  <si>
+    <t>罗智钧</t>
+  </si>
+  <si>
+    <t>刘淑娟</t>
+  </si>
+  <si>
+    <t>李慈泉</t>
+  </si>
+  <si>
+    <t>林莉婷</t>
+  </si>
+  <si>
+    <t>丁容定</t>
+  </si>
+  <si>
+    <t>吴建豪</t>
+  </si>
+  <si>
+    <t>潘于恭</t>
+  </si>
+  <si>
+    <t>赖怡伶</t>
+  </si>
+  <si>
+    <t>詹佳颖</t>
+  </si>
+  <si>
+    <t>傅姿蓉</t>
+  </si>
+  <si>
+    <t>沈洁铭</t>
+  </si>
+  <si>
+    <t>蔡文雯</t>
+  </si>
+  <si>
+    <t>王凯婷</t>
+  </si>
+  <si>
+    <t>张咏修</t>
+  </si>
+  <si>
+    <t>辛雅萍</t>
+  </si>
+  <si>
+    <t>袁贤欢</t>
+  </si>
+  <si>
+    <t>柯冠良</t>
+  </si>
+  <si>
+    <t>潘静宜</t>
+  </si>
+  <si>
+    <t>黄明哲</t>
+  </si>
+  <si>
+    <t>程俊宪</t>
+  </si>
+  <si>
+    <t>陈宗颖</t>
+  </si>
+  <si>
+    <t>陈玮郁</t>
+  </si>
+  <si>
+    <t>吴佩琪</t>
+  </si>
+  <si>
+    <t>陈馨薇</t>
+  </si>
+  <si>
+    <t>陈营虹</t>
+  </si>
+  <si>
+    <t>谢雅惠</t>
+  </si>
+  <si>
+    <t>杨雅康</t>
+  </si>
+  <si>
+    <t>简志旺</t>
+  </si>
+  <si>
+    <t>吕木云</t>
+  </si>
+  <si>
+    <t>宋湘婷</t>
+  </si>
+  <si>
+    <t>张玮俊</t>
+  </si>
+  <si>
+    <t>王姿吟</t>
+  </si>
+  <si>
+    <t>郑伟芳</t>
+  </si>
+  <si>
+    <t>王文杰</t>
+  </si>
+  <si>
+    <t>王芸茜</t>
+  </si>
+  <si>
+    <t>黄柏幸</t>
+  </si>
+  <si>
+    <t>罗芸纶</t>
+  </si>
+  <si>
+    <t>曾欣怡</t>
+  </si>
+  <si>
+    <t>陆怡萱</t>
+  </si>
+  <si>
+    <t>黄干慈</t>
+  </si>
+  <si>
+    <t>袁静如</t>
+  </si>
+  <si>
+    <t>张昆元</t>
+  </si>
+  <si>
+    <t>陈采勇</t>
+  </si>
+  <si>
+    <t>马荣真</t>
+  </si>
+  <si>
+    <t>刘湘舜</t>
+  </si>
+  <si>
+    <t>曹智强</t>
+  </si>
+  <si>
+    <t>许雅玲</t>
+  </si>
+  <si>
+    <t>王彦儒</t>
+  </si>
+  <si>
+    <t>林国芸</t>
+  </si>
+  <si>
+    <t>陈雅慧</t>
+  </si>
+  <si>
+    <t>钱群秋</t>
+  </si>
+  <si>
+    <t>游思好</t>
+  </si>
+  <si>
+    <t>庾雅婷</t>
+  </si>
+  <si>
+    <t>洪协慧</t>
+  </si>
+  <si>
+    <t>林宜</t>
+  </si>
+  <si>
+    <t>简淑芬</t>
+  </si>
+  <si>
+    <t>李文彬</t>
+  </si>
+  <si>
+    <t>何义秀</t>
+  </si>
+  <si>
+    <t>游石如</t>
+  </si>
+  <si>
+    <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毕雯珺</t>
+    <t>02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨超越</t>
+    <t>03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白敬亭</t>
+    <t>04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>罗思源</t>
+    <t>05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨敏铝</t>
+    <t>06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邓小英</t>
+    <t>07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林嘉敏</t>
+    <t>08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王一博</t>
+    <t>09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEANO</t>
+    <t>陈书华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEPARTNO</t>
+    <t>TeaNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEANAME</t>
+    <t>TeaName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林家明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晓燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周泽通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林建宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张坤燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,8 +424,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,129 +708,1131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>20210001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>20210002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>20210003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>20210004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>20210005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>20210006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>20210007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>20210008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>20210009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>20210010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>20210011</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>20210012</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>20210013</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>20200020</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>20200021</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>20200022</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>20200023</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>20200024</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>20200025</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>20200026</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>20200027</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>20200028</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>20210014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>20210015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>20210016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>20210017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>20210018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20210019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20210020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20210021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20210022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20210023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20210024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>20210025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>20210026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>20210027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>20210028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>20210029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>20210030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>20210031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>20210032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>20210033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>20210034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>20210035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>20210036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>20210037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>20210038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>20210039</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>20210040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>20210041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>20210042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>20210043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>20210044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>20210045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>20210046</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>20210047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>20210048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>20210049</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>20210050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>20210051</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>20210052</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>20210053</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>20210054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>20210055</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>20210056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>20210057</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>20210058</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>20210059</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>20210060</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>20210061</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>20210062</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>20210063</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>20210064</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>20210065</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>20210066</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>20210067</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>20210068</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>20210069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>20210070</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>20210071</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>20210072</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>20210073</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>20210074</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>20210075</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>20210076</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>20210077</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>20210078</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>20210079</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>20210080</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>20210081</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>20210082</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>20210083</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>20210084</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>20210085</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>20210086</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>20210087</v>
+      </c>
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>20210088</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>20210089</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>20210090</v>
+      </c>
+      <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>20210091</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>20210092</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>20210093</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>20210094</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>20210095</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>20210096</v>
+      </c>
+      <c r="B97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>20210097</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>20210098</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>20210099</v>
+      </c>
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>20210100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
